--- a/public/template/laporan/Laporan Penjualan Kayu Olahan.xlsx
+++ b/public/template/laporan/Laporan Penjualan Kayu Olahan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\PKL\PKL_DLH_uji2\public\template\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9244D804-1C38-483F-9F89-8B99CED2B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FC8964-2470-4F28-98AD-F10F7A38E442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F52AC168-CB8D-44F1-87BB-1F52C17B9D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,21 +377,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>77164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1609003</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97271</xdr:rowOff>
+      <xdr:colOff>1607377</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13248</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139CE206-3DDE-451D-A83C-59F4CAF0D02A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15F2A37-1780-487F-9756-0938AFA1198F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -399,8 +399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622300" y="774700"/>
-          <a:ext cx="3285403" cy="1202171"/>
+          <a:off x="607671" y="684835"/>
+          <a:ext cx="3256769" cy="1402210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -529,6 +529,21 @@
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
+          </a:r>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -580,22 +595,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>10732</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1609003</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97271</xdr:rowOff>
+      <xdr:colOff>1618109</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734A7145-DEEC-4D38-831D-F1A8DB17916C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41B3AAF-40A7-47B9-A2EB-72F56B01421C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,8 +618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="622300" y="774700"/>
-          <a:ext cx="3285403" cy="1202171"/>
+          <a:off x="622478" y="654676"/>
+          <a:ext cx="3249434" cy="1396505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,6 +747,21 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> menggunakan "," contoh 2,000 m3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Tanggal Ditulis dengan format (HH/BB/TTTT) contoh 1 maret 2025 ditulis sebagai 1/3/2025</a:t>
           </a:r>
           <a:endParaRPr lang="en-ID" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -1112,48 +1142,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489846A1-134B-44A4-9C23-72D55F60D54E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1210,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1206,7 +1236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1216,7 +1246,7 @@
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1225,7 +1255,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1234,7 +1264,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1243,7 +1273,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1252,7 +1282,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1261,7 +1291,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1270,7 +1300,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1279,7 +1309,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1288,7 +1318,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1312,48 +1342,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECDA05A-EFBB-42DA-9CF8-0FABD25793D2}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="71" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1410,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -1432,7 +1462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -1458,7 +1488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -1484,7 +1514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>4</v>
       </c>
@@ -1510,7 +1540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>5</v>
       </c>
@@ -1536,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>6</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>7</v>
       </c>
@@ -1588,7 +1618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>8</v>
       </c>
@@ -1614,7 +1644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>9</v>
       </c>
@@ -1640,7 +1670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
